--- a/数据预处理_电子商务行业招聘Excel信息/data_loc.xlsx
+++ b/数据预处理_电子商务行业招聘Excel信息/data_loc.xlsx
@@ -34,19 +34,19 @@
     <t>客服专员</t>
   </si>
   <si>
+    <t>外贸业务员</t>
+  </si>
+  <si>
+    <t>电子商务</t>
+  </si>
+  <si>
+    <t>电子商务运营</t>
+  </si>
+  <si>
+    <t>Android开发工程师</t>
+  </si>
+  <si>
     <t>财务主管</t>
-  </si>
-  <si>
-    <t>电子商务</t>
-  </si>
-  <si>
-    <t>Android开发工程师</t>
-  </si>
-  <si>
-    <t>外贸业务员</t>
-  </si>
-  <si>
-    <t>电子商务运营</t>
   </si>
 </sst>
 </file>
